--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H2">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I2">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J2">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.20012034482547</v>
+        <v>0.04225366666666667</v>
       </c>
       <c r="N2">
-        <v>1.20012034482547</v>
+        <v>0.126761</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03359366718256408</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0495580819187537</v>
       </c>
       <c r="Q2">
-        <v>38.16750118981844</v>
+        <v>1.754722311628333</v>
       </c>
       <c r="R2">
-        <v>38.16750118981844</v>
+        <v>15.792500804655</v>
       </c>
       <c r="S2">
-        <v>0.1137170024137614</v>
+        <v>0.004631448451285766</v>
       </c>
       <c r="T2">
-        <v>0.1137170024137614</v>
+        <v>0.007232496178625671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.38784822794661</v>
+        <v>41.528285</v>
       </c>
       <c r="H3">
-        <v>65.38784822794661</v>
+        <v>124.584855</v>
       </c>
       <c r="I3">
-        <v>0.2338048518967697</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J3">
-        <v>0.2338048518967697</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.20012034482547</v>
+        <v>1.215533</v>
       </c>
       <c r="N3">
-        <v>1.20012034482547</v>
+        <v>2.431066</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9664063328174359</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9504419180812462</v>
       </c>
       <c r="Q3">
-        <v>78.47328696271877</v>
+        <v>50.479000850905</v>
       </c>
       <c r="R3">
-        <v>78.47328696271877</v>
+        <v>302.87400510543</v>
       </c>
       <c r="S3">
-        <v>0.2338048518967697</v>
+        <v>0.1332352639298382</v>
       </c>
       <c r="T3">
-        <v>0.2338048518967697</v>
+        <v>0.1387072960530983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.2565026684047</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H4">
-        <v>62.2565026684047</v>
+        <v>216.066395</v>
       </c>
       <c r="I4">
-        <v>0.2226082182006422</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J4">
-        <v>0.2226082182006422</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.20012034482547</v>
+        <v>0.04225366666666667</v>
       </c>
       <c r="N4">
-        <v>1.20012034482547</v>
+        <v>0.126761</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03359366718256408</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0495580819187537</v>
       </c>
       <c r="Q4">
-        <v>74.71529545003365</v>
+        <v>3.043199144066111</v>
       </c>
       <c r="R4">
-        <v>74.71529545003365</v>
+        <v>27.388792296595</v>
       </c>
       <c r="S4">
-        <v>0.2226082182006422</v>
+        <v>0.008032279449196681</v>
       </c>
       <c r="T4">
-        <v>0.2226082182006422</v>
+        <v>0.01254325316000027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.2564920615435</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H5">
-        <v>72.2564920615435</v>
+        <v>216.066395</v>
       </c>
       <c r="I5">
-        <v>0.2583648014557065</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J5">
-        <v>0.2583648014557065</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.20012034482547</v>
+        <v>1.215533</v>
       </c>
       <c r="N5">
-        <v>1.20012034482547</v>
+        <v>2.431066</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9664063328174359</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9504419180812462</v>
       </c>
       <c r="Q5">
-        <v>86.71648616877842</v>
+        <v>87.54527777117833</v>
       </c>
       <c r="R5">
-        <v>86.71648616877842</v>
+        <v>525.27166662707</v>
       </c>
       <c r="S5">
-        <v>0.2583648014557065</v>
+        <v>0.2310687215086751</v>
       </c>
       <c r="T5">
-        <v>0.2583648014557065</v>
+        <v>0.2405588176700184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H6">
+        <v>196.004631</v>
+      </c>
+      <c r="I6">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J6">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04225366666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.126761</v>
+      </c>
+      <c r="O6">
+        <v>0.03359366718256408</v>
+      </c>
+      <c r="P6">
+        <v>0.0495580819187537</v>
+      </c>
+      <c r="Q6">
+        <v>2.760638114465667</v>
+      </c>
+      <c r="R6">
+        <v>24.84574303019101</v>
+      </c>
+      <c r="S6">
+        <v>0.007286482331177316</v>
+      </c>
+      <c r="T6">
+        <v>0.01137861214912868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>47.9645784096898</v>
-      </c>
-      <c r="H6">
-        <v>47.9645784096898</v>
-      </c>
-      <c r="I6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="J6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.20012034482547</v>
-      </c>
-      <c r="N6">
-        <v>1.20012034482547</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>57.56326638044522</v>
-      </c>
-      <c r="R6">
-        <v>57.56326638044522</v>
-      </c>
-      <c r="S6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="T6">
-        <v>0.1715051260331203</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H7">
+        <v>196.004631</v>
+      </c>
+      <c r="I7">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J7">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.215533</v>
+      </c>
+      <c r="N7">
+        <v>2.431066</v>
+      </c>
+      <c r="O7">
+        <v>0.9664063328174359</v>
+      </c>
+      <c r="P7">
+        <v>0.9504419180812462</v>
+      </c>
+      <c r="Q7">
+        <v>79.416699044441</v>
+      </c>
+      <c r="R7">
+        <v>476.500194266646</v>
+      </c>
+      <c r="S7">
+        <v>0.209613991546208</v>
+      </c>
+      <c r="T7">
+        <v>0.2182229323130431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H8">
+        <v>217.039795</v>
+      </c>
+      <c r="I8">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J8">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04225366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.126761</v>
+      </c>
+      <c r="O8">
+        <v>0.03359366718256408</v>
+      </c>
+      <c r="P8">
+        <v>0.0495580819187537</v>
+      </c>
+      <c r="Q8">
+        <v>3.05690905044389</v>
+      </c>
+      <c r="R8">
+        <v>27.51218145399501</v>
+      </c>
+      <c r="S8">
+        <v>0.008068465644721665</v>
+      </c>
+      <c r="T8">
+        <v>0.01259976172823895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H9">
+        <v>217.039795</v>
+      </c>
+      <c r="I9">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J9">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.215533</v>
+      </c>
+      <c r="N9">
+        <v>2.431066</v>
+      </c>
+      <c r="O9">
+        <v>0.9664063328174359</v>
+      </c>
+      <c r="P9">
+        <v>0.9504419180812462</v>
+      </c>
+      <c r="Q9">
+        <v>87.93967771191168</v>
+      </c>
+      <c r="R9">
+        <v>527.6380662714701</v>
+      </c>
+      <c r="S9">
+        <v>0.2321097084401068</v>
+      </c>
+      <c r="T9">
+        <v>0.2416425584022132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.988644</v>
+      </c>
+      <c r="H10">
+        <v>99.977288</v>
+      </c>
+      <c r="I10">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J10">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04225366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.126761</v>
+      </c>
+      <c r="O10">
+        <v>0.03359366718256408</v>
+      </c>
+      <c r="P10">
+        <v>0.0495580819187537</v>
+      </c>
+      <c r="Q10">
+        <v>2.112203500694667</v>
+      </c>
+      <c r="R10">
+        <v>12.673221004168</v>
+      </c>
+      <c r="S10">
+        <v>0.005574991306182653</v>
+      </c>
+      <c r="T10">
+        <v>0.005803958702760124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>49.988644</v>
+      </c>
+      <c r="H11">
+        <v>99.977288</v>
+      </c>
+      <c r="I11">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J11">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.215533</v>
+      </c>
+      <c r="N11">
+        <v>2.431066</v>
+      </c>
+      <c r="O11">
+        <v>0.9664063328174359</v>
+      </c>
+      <c r="P11">
+        <v>0.9504419180812462</v>
+      </c>
+      <c r="Q11">
+        <v>60.762846407252</v>
+      </c>
+      <c r="R11">
+        <v>243.051385629008</v>
+      </c>
+      <c r="S11">
+        <v>0.1603786473926078</v>
+      </c>
+      <c r="T11">
+        <v>0.1113103136428731</v>
       </c>
     </row>
   </sheetData>
